--- a/data/trans_orig/Q5406-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q5406-Provincia-trans_orig.xlsx
@@ -794,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5622</v>
+        <v>5495</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.0513106910695076</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1588714728363747</v>
+        <v>0.1552995483053142</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>2</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>7857</v>
+        <v>7310</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05959729017443195</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2002825358613609</v>
+        <v>0.1863227444929011</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>4</v>
@@ -833,19 +833,19 @@
         <v>4154</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1171</v>
+        <v>1155</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>9903</v>
+        <v>9570</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.05566752379034162</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01569587338945446</v>
+        <v>0.01547586321841493</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1327186552377358</v>
+        <v>0.1282538403629355</v>
       </c>
     </row>
     <row r="6">
@@ -862,7 +862,7 @@
         <v>33570</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>29764</v>
+        <v>29891</v>
       </c>
       <c r="F6" s="5" t="n">
         <v>35386</v>
@@ -871,7 +871,7 @@
         <v>0.9486893089304924</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8411285271636253</v>
+        <v>0.8447004516946859</v>
       </c>
       <c r="I6" s="6" t="n">
         <v>1</v>
@@ -883,7 +883,7 @@
         <v>36893</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>31374</v>
+        <v>31921</v>
       </c>
       <c r="M6" s="5" t="n">
         <v>39231</v>
@@ -892,7 +892,7 @@
         <v>0.9404027098255681</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.7997174641386395</v>
+        <v>0.8136772555071007</v>
       </c>
       <c r="P6" s="6" t="n">
         <v>1</v>
@@ -904,19 +904,19 @@
         <v>70463</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>64714</v>
+        <v>65047</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>73446</v>
+        <v>73462</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9443324762096584</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8672813447622644</v>
+        <v>0.871746159637064</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9843041266105456</v>
+        <v>0.9845241367815851</v>
       </c>
     </row>
     <row r="7">
@@ -1011,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>8997</v>
+        <v>10415</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.04106427234809665</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1349825011913141</v>
+        <v>0.1562487460856945</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1</v>
@@ -1032,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>6927</v>
+        <v>6500</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01250400865766913</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.07077453934326464</v>
+        <v>0.06640727903523155</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3</v>
@@ -1050,19 +1050,19 @@
         <v>3961</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1000</v>
+        <v>991</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>12412</v>
+        <v>10482</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02407437683132667</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.006079805943804268</v>
+        <v>0.006022963107565484</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.07544029935780605</v>
+        <v>0.06370719117388013</v>
       </c>
     </row>
     <row r="9">
@@ -1079,19 +1079,19 @@
         <v>3900</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>998</v>
+        <v>973</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>9119</v>
+        <v>9031</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.0585158584921676</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01496826754307619</v>
+        <v>0.01459618028295891</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1368058137589633</v>
+        <v>0.135497607559483</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>5</v>
@@ -1100,19 +1100,19 @@
         <v>4966</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1788</v>
+        <v>1785</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>11776</v>
+        <v>11139</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.05073384858945169</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01826801387786786</v>
+        <v>0.01823257751502745</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1203173454786725</v>
+        <v>0.1138061844288325</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>9</v>
@@ -1121,19 +1121,19 @@
         <v>8866</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>4018</v>
+        <v>4368</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>16269</v>
+        <v>16519</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.05388650574561271</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02442382503721853</v>
+        <v>0.02655112099442528</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.09888217351650201</v>
+        <v>0.1004023699653716</v>
       </c>
     </row>
     <row r="10">
@@ -1150,19 +1150,19 @@
         <v>60017</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>52675</v>
+        <v>53242</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>63967</v>
+        <v>63860</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9004198691597357</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7902758176523111</v>
+        <v>0.7987878611020417</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9596891962235351</v>
+        <v>0.9580857760045073</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>90</v>
@@ -1171,19 +1171,19 @@
         <v>91686</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>85199</v>
+        <v>84694</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>95633</v>
+        <v>95740</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9367621427528792</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8704879540349556</v>
+        <v>0.8653278301016341</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9770927477465049</v>
+        <v>0.9781907716846203</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>149</v>
@@ -1192,19 +1192,19 @@
         <v>151702</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>142062</v>
+        <v>143304</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>157381</v>
+        <v>157254</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9220391174230607</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8634455909056646</v>
+        <v>0.8709978378410776</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9565561709018724</v>
+        <v>0.9557806623670405</v>
       </c>
     </row>
     <row r="11">
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>6092</v>
+        <v>6715</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01349562792633087</v>
@@ -1321,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.07293788122927608</v>
+        <v>0.0803996443988767</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>2</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>6454</v>
+        <v>5733</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.008382891031207792</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.0479957993482638</v>
+        <v>0.04263673249552041</v>
       </c>
     </row>
     <row r="13">
@@ -1362,7 +1362,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>5089</v>
+        <v>5182</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01863722505053117</v>
@@ -1371,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09990336452825503</v>
+        <v>0.1017215873765512</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>4</v>
@@ -1380,19 +1380,19 @@
         <v>4430</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1139</v>
+        <v>1127</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>10949</v>
+        <v>9869</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05304200712720506</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01363592685062493</v>
+        <v>0.01349189659824101</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1310978619713734</v>
+        <v>0.1181587269994656</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>5</v>
@@ -1401,19 +1401,19 @@
         <v>5380</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2060</v>
+        <v>2091</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>11067</v>
+        <v>11745</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04000796383168103</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01532413844034488</v>
+        <v>0.01554877731530982</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08230312495811762</v>
+        <v>0.08734665372430535</v>
       </c>
     </row>
     <row r="14">
@@ -1430,7 +1430,7 @@
         <v>49991</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>45851</v>
+        <v>45758</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>50940</v>
@@ -1439,7 +1439,7 @@
         <v>0.9813627749494689</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9000966354717408</v>
+        <v>0.8982784126234487</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -1451,19 +1451,19 @@
         <v>77964</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>71390</v>
+        <v>71570</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>81333</v>
+        <v>81381</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9334623649464641</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8547537950131828</v>
+        <v>0.8569110182151021</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9737990738335893</v>
+        <v>0.9743836761339709</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>129</v>
@@ -1472,19 +1472,19 @@
         <v>127954</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>121445</v>
+        <v>121558</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>131425</v>
+        <v>132170</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9516091451371111</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9032018500520237</v>
+        <v>0.9040426302268623</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9774233471792816</v>
+        <v>0.9829588348356744</v>
       </c>
     </row>
     <row r="15">
@@ -1592,7 +1592,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5387</v>
+        <v>5209</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01425581255063412</v>
@@ -1601,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07248979953236311</v>
+        <v>0.07009806102241356</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1</v>
@@ -1613,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>5962</v>
+        <v>5330</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.008184754746640941</v>
@@ -1622,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04606227594506952</v>
+        <v>0.0411812015299498</v>
       </c>
     </row>
     <row r="17">
@@ -1642,16 +1642,16 @@
         <v>825</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>7158</v>
+        <v>7359</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.04734358196098082</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01495850617198596</v>
+        <v>0.01497166524033594</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1298639988448151</v>
+        <v>0.1335118980892473</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2</v>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>6639</v>
+        <v>7214</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02959291702473998</v>
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.08933182776880659</v>
+        <v>0.09707303546961857</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5</v>
@@ -1681,19 +1681,19 @@
         <v>4809</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1731</v>
+        <v>1674</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>10500</v>
+        <v>10374</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03715231165794449</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01337262119006048</v>
+        <v>0.01293360715137127</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.08111912308497611</v>
+        <v>0.08015142575963916</v>
       </c>
     </row>
     <row r="18">
@@ -1710,7 +1710,7 @@
         <v>52512</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>47964</v>
+        <v>47763</v>
       </c>
       <c r="F18" s="5" t="n">
         <v>54297</v>
@@ -1719,10 +1719,10 @@
         <v>0.9526564180390191</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8701360011551852</v>
+        <v>0.8664881019107515</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9850414938280141</v>
+        <v>0.985028334759664</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>74</v>
@@ -1731,19 +1731,19 @@
         <v>71054</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>65746</v>
+        <v>65691</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>73270</v>
+        <v>73250</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.9561512704246259</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8847193362212239</v>
+        <v>0.8839741256610939</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9859635421605404</v>
+        <v>0.9856925347809818</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>131</v>
@@ -1752,19 +1752,19 @@
         <v>123568</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>117531</v>
+        <v>117886</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>127290</v>
+        <v>127448</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9546629335954145</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9080219924401338</v>
+        <v>0.9107674012970056</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9834217940951944</v>
+        <v>0.9846400928530443</v>
       </c>
     </row>
     <row r="19">
@@ -1872,7 +1872,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>6652</v>
+        <v>6950</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.04982056680937045</v>
@@ -1881,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1612677156329003</v>
+        <v>0.1685032625095969</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>2</v>
@@ -1893,7 +1893,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>6685</v>
+        <v>6608</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02910901844308565</v>
@@ -1902,7 +1902,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.09470283171064355</v>
+        <v>0.09361214330953606</v>
       </c>
     </row>
     <row r="21">
@@ -1919,19 +1919,19 @@
         <v>5149</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1839</v>
+        <v>1814</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>9886</v>
+        <v>9377</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1754603185453299</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.06265802702319992</v>
+        <v>0.06181310666660687</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3368670564433217</v>
+        <v>0.3195103092759304</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>2</v>
@@ -1943,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>6867</v>
+        <v>7138</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.0555552329601449</v>
@@ -1952,7 +1952,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1664878563095517</v>
+        <v>0.1730676880712325</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>8</v>
@@ -1961,19 +1961,19 @@
         <v>7441</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>3530</v>
+        <v>3552</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>14157</v>
+        <v>13583</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1054025176962548</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.04999869075510585</v>
+        <v>0.05031848502567802</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2005464277976456</v>
+        <v>0.1924068539064627</v>
       </c>
     </row>
     <row r="22">
@@ -1990,19 +1990,19 @@
         <v>24198</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>19461</v>
+        <v>19970</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>27508</v>
+        <v>27533</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.82453968145467</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.663132943556679</v>
+        <v>0.6804896907240696</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9373419729768001</v>
+        <v>0.938186893333393</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>35</v>
@@ -2011,19 +2011,19 @@
         <v>36900</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>31578</v>
+        <v>30696</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>40112</v>
+        <v>40098</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8946242002304846</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7656095551427021</v>
+        <v>0.7442281645137536</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9725081034750598</v>
+        <v>0.9721703309257469</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>63</v>
@@ -2032,19 +2032,19 @@
         <v>61097</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>53636</v>
+        <v>54510</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>65511</v>
+        <v>65712</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8654884638606595</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.759797213958215</v>
+        <v>0.7721781914626701</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9280097074575278</v>
+        <v>0.9308511657621988</v>
       </c>
     </row>
     <row r="23">
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>4343</v>
+        <v>4685</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01799008403008113</v>
@@ -2195,7 +2195,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.09201990002753506</v>
+        <v>0.09926967699106949</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>3</v>
@@ -2204,19 +2204,19 @@
         <v>3693</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1143</v>
+        <v>278</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>9954</v>
+        <v>9611</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05252769543835433</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01625346004753393</v>
+        <v>0.003955309220184428</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1415743072008353</v>
+        <v>0.1367018898719464</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>4</v>
@@ -2225,19 +2225,19 @@
         <v>4542</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1160</v>
+        <v>1371</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>11071</v>
+        <v>10681</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03865554589764486</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.009868413891438787</v>
+        <v>0.01166389619649563</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.09421304912619913</v>
+        <v>0.09089688462391936</v>
       </c>
     </row>
     <row r="26">
@@ -2254,7 +2254,7 @@
         <v>46347</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>42853</v>
+        <v>42511</v>
       </c>
       <c r="F26" s="5" t="n">
         <v>47196</v>
@@ -2263,7 +2263,7 @@
         <v>0.9820099159699188</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.907980099972465</v>
+        <v>0.9007303230089314</v>
       </c>
       <c r="I26" s="6" t="n">
         <v>1</v>
@@ -2275,19 +2275,19 @@
         <v>66616</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>60355</v>
+        <v>60698</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>69166</v>
+        <v>70031</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9474723045616457</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8584256927991646</v>
+        <v>0.8632981101280535</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9837465399524661</v>
+        <v>0.9960446907798113</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>112</v>
@@ -2296,19 +2296,19 @@
         <v>112964</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>106435</v>
+        <v>106825</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>116346</v>
+        <v>116135</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9613444541023551</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9057869508738007</v>
+        <v>0.9091031153760801</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9901315861085612</v>
+        <v>0.9883361038035043</v>
       </c>
     </row>
     <row r="27">
@@ -2403,7 +2403,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>4647</v>
+        <v>4960</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.007914843998951463</v>
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.04387212315636137</v>
+        <v>0.04682816184850948</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2</v>
@@ -2424,7 +2424,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>6698</v>
+        <v>6428</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01725170467702855</v>
@@ -2433,7 +2433,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.05719088181145162</v>
+        <v>0.05488761400732271</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3</v>
@@ -2442,19 +2442,19 @@
         <v>2859</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>847</v>
+        <v>838</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>7954</v>
+        <v>8027</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01281754986199601</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.003797969181055617</v>
+        <v>0.003756887233179674</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.03565933279299863</v>
+        <v>0.03598639616303982</v>
       </c>
     </row>
     <row r="29">
@@ -2471,19 +2471,19 @@
         <v>6227</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2478</v>
+        <v>2545</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>11660</v>
+        <v>11326</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.05878328763501488</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02339092937417073</v>
+        <v>0.02402523136126913</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1100782757312648</v>
+        <v>0.1069178800496247</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2</v>
@@ -2495,7 +2495,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>6557</v>
+        <v>6542</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.01725170467702855</v>
@@ -2504,7 +2504,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.05598905187276506</v>
+        <v>0.0558584532028193</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>9</v>
@@ -2513,19 +2513,19 @@
         <v>8247</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>3878</v>
+        <v>3623</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>14570</v>
+        <v>14377</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.03697540784649746</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.01738728473730631</v>
+        <v>0.01624144364347388</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.06532059132321474</v>
+        <v>0.06445594017500354</v>
       </c>
     </row>
     <row r="30">
@@ -2542,19 +2542,19 @@
         <v>98863</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>93315</v>
+        <v>93228</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>103228</v>
+        <v>102627</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.9333018683660337</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.8809298391769594</v>
+        <v>0.8801106722222686</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.9745096243011034</v>
+        <v>0.96884012370711</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>113</v>
@@ -2563,19 +2563,19 @@
         <v>113080</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>107419</v>
+        <v>107164</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>116003</v>
+        <v>116197</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.9654965906459428</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.9171641219313225</v>
+        <v>0.9149841609774469</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.9904568255142587</v>
+        <v>0.9921107547214154</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>213</v>
@@ -2584,19 +2584,19 @@
         <v>211943</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>204319</v>
+        <v>204781</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>217042</v>
+        <v>216912</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.9502070422915065</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.9160287359563369</v>
+        <v>0.9180982545826893</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.9730677207685676</v>
+        <v>0.9724877377617553</v>
       </c>
     </row>
     <row r="31">
@@ -2701,19 +2701,19 @@
         <v>8461</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>3653</v>
+        <v>3666</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>16112</v>
+        <v>16862</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.05522067230859753</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.02384338463353591</v>
+        <v>0.02392674427222533</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1051507175359307</v>
+        <v>0.1100448209946202</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>7</v>
@@ -2722,19 +2722,19 @@
         <v>8461</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>3472</v>
+        <v>3702</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>17188</v>
+        <v>17149</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.03191485024040665</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01309787154917231</v>
+        <v>0.01396256869948135</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.06483286089226797</v>
+        <v>0.06468366082158623</v>
       </c>
     </row>
     <row r="33">
@@ -2751,19 +2751,19 @@
         <v>6690</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>2752</v>
+        <v>2823</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>12419</v>
+        <v>13148</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.05978821707500528</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.02459911781553696</v>
+        <v>0.02523248041241268</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1109922803552526</v>
+        <v>0.1175051854317139</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>4</v>
@@ -2772,19 +2772,19 @@
         <v>5105</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>1328</v>
+        <v>1426</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>12163</v>
+        <v>12596</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.03331660754643565</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.008665750425695064</v>
+        <v>0.009305124685390314</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.0793779684491612</v>
+        <v>0.08220401301962202</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>11</v>
@@ -2793,19 +2793,19 @@
         <v>11795</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>6502</v>
+        <v>5998</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>20840</v>
+        <v>20437</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.04448892030068323</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.02452330077077234</v>
+        <v>0.02262266393612733</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.0786054209814441</v>
+        <v>0.07708593913741867</v>
       </c>
     </row>
     <row r="34">
@@ -2822,19 +2822,19 @@
         <v>105203</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>99474</v>
+        <v>98745</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>109141</v>
+        <v>109070</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.9402117829249947</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.8890077196447477</v>
+        <v>0.8824948145682869</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.9754008821844631</v>
+        <v>0.9747675195875874</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>133</v>
@@ -2843,19 +2843,19 @@
         <v>139659</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>130616</v>
+        <v>130417</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>146102</v>
+        <v>145962</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.9114627201449668</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.8524442884690735</v>
+        <v>0.8511447386394725</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.9535096414298654</v>
+        <v>0.9525975934690145</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>242</v>
@@ -2864,19 +2864,19 @@
         <v>244862</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>233733</v>
+        <v>232933</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>252240</v>
+        <v>252810</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.9235962294589102</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.8816199288836676</v>
+        <v>0.8786020154485346</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.951426869693046</v>
+        <v>0.9535741956066002</v>
       </c>
     </row>
     <row r="35">
@@ -2968,19 +2968,19 @@
         <v>3576</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>840</v>
+        <v>854</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>10515</v>
+        <v>10348</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.007115938794852052</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.001672548068622642</v>
+        <v>0.001699097427346487</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.02092766777586608</v>
+        <v>0.02059363973757332</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>15</v>
@@ -2989,19 +2989,19 @@
         <v>15947</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>9253</v>
+        <v>8915</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>25432</v>
+        <v>25339</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.02356093782705999</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.01367027470410609</v>
+        <v>0.01317119300147788</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.03757522222768977</v>
+        <v>0.0374369088795868</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>18</v>
@@ -3010,19 +3010,19 @@
         <v>19523</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>11724</v>
+        <v>12169</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>29659</v>
+        <v>32140</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.01655424156978161</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.009941506078180212</v>
+        <v>0.01031846404741399</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.02514907084578763</v>
+        <v>0.02725322071659373</v>
       </c>
     </row>
     <row r="37">
@@ -3039,19 +3039,19 @@
         <v>28190</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>20189</v>
+        <v>20458</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>38812</v>
+        <v>39847</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.0561033340492853</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.0401794069442078</v>
+        <v>0.04071554252230635</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.07724377689418244</v>
+        <v>0.07930196821584165</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>24</v>
@@ -3060,19 +3060,19 @@
         <v>27043</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>18135</v>
+        <v>18609</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>39317</v>
+        <v>39299</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.03995466237658968</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.02679323227797281</v>
+        <v>0.02749315154752066</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.05808946410527547</v>
+        <v>0.05806207022899591</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>55</v>
@@ -3081,19 +3081,19 @@
         <v>55233</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>41223</v>
+        <v>42359</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>71016</v>
+        <v>70845</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.04683510287691984</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.03495559452099491</v>
+        <v>0.03591868685787242</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.0602180658163561</v>
+        <v>0.06007314849879552</v>
       </c>
     </row>
     <row r="38">
@@ -3110,19 +3110,19 @@
         <v>470700</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>458656</v>
+        <v>457728</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>479617</v>
+        <v>479103</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.9367807271558627</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.9128107819964044</v>
+        <v>0.9109640188758218</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.9545263464192891</v>
+        <v>0.953502351776669</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>622</v>
@@ -3131,19 +3131,19 @@
         <v>633852</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>618507</v>
+        <v>617242</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>645376</v>
+        <v>645162</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.9364843997963503</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.9138128138687223</v>
+        <v>0.9119447086292392</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.9535098999452636</v>
+        <v>0.9531949834858701</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>1111</v>
@@ -3152,19 +3152,19 @@
         <v>1104552</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1086092</v>
+        <v>1087961</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1120524</v>
+        <v>1119725</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.9366106555532986</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.9209569670605064</v>
+        <v>0.9225414906257572</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.9501540020787702</v>
+        <v>0.9494763924241172</v>
       </c>
     </row>
     <row r="39">
@@ -3513,19 +3513,19 @@
         <v>3225</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>938</v>
+        <v>943</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8124</v>
+        <v>8690</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06596590624589117</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01918010002005526</v>
+        <v>0.01928527958145656</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1661457547126233</v>
+        <v>0.1777386820204775</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -3534,19 +3534,19 @@
         <v>3225</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>8675</v>
+        <v>8763</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.034616030920274</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01001291067649327</v>
+        <v>0.009960984312699567</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09310638025362972</v>
+        <v>0.09404870053121182</v>
       </c>
     </row>
     <row r="5">
@@ -3563,19 +3563,19 @@
         <v>3996</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1017</v>
+        <v>991</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>9061</v>
+        <v>8860</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.09023829002856518</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02296962517419144</v>
+        <v>0.0223811389038871</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2046305899613862</v>
+        <v>0.2000762107012798</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>5</v>
@@ -3584,19 +3584,19 @@
         <v>5376</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2118</v>
+        <v>2145</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>10922</v>
+        <v>11732</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1099569293203605</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04331136812909245</v>
+        <v>0.04387641475662062</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2233737322369884</v>
+        <v>0.2399483730299562</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>9</v>
@@ -3605,19 +3605,19 @@
         <v>9372</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>4261</v>
+        <v>4424</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>16085</v>
+        <v>15757</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1005857720276173</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04573169389038861</v>
+        <v>0.04748550538247734</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1726303070377316</v>
+        <v>0.1691131708391049</v>
       </c>
     </row>
     <row r="6">
@@ -3634,19 +3634,19 @@
         <v>40285</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>35220</v>
+        <v>35421</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>43264</v>
+        <v>43290</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9097617099714348</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.7953694100386135</v>
+        <v>0.7999237892987198</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9770303748258086</v>
+        <v>0.977618861096113</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>39</v>
@@ -3655,19 +3655,19 @@
         <v>40292</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>34134</v>
+        <v>33811</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>44518</v>
+        <v>44550</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.8240771644337483</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.6981125106251805</v>
+        <v>0.6915062355971353</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9105001974080928</v>
+        <v>0.9111534227253618</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>75</v>
@@ -3676,19 +3676,19 @@
         <v>80578</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>72888</v>
+        <v>72079</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>86112</v>
+        <v>85930</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.8647981970521087</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.7822662880293764</v>
+        <v>0.7735918517801399</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9241947094895022</v>
+        <v>0.9222378392659166</v>
       </c>
     </row>
     <row r="7">
@@ -3780,19 +3780,19 @@
         <v>5380</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1104</v>
+        <v>2030</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>14027</v>
+        <v>14314</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.06792349781485735</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01393890412555678</v>
+        <v>0.0256343885215315</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1771058793757904</v>
+        <v>0.1807283832672059</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>6</v>
@@ -3801,19 +3801,19 @@
         <v>7848</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>3204</v>
+        <v>3370</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>15609</v>
+        <v>17144</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.07687112734349116</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.03138576762967426</v>
+        <v>0.03301222403140035</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1528863331007958</v>
+        <v>0.1679291755087583</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>10</v>
@@ -3822,19 +3822,19 @@
         <v>13228</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>6780</v>
+        <v>6555</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>25467</v>
+        <v>24100</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.0729621754303918</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.03739852718511277</v>
+        <v>0.03615408173792235</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1404746901412753</v>
+        <v>0.1329338668772385</v>
       </c>
     </row>
     <row r="9">
@@ -3851,19 +3851,19 @@
         <v>7613</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2228</v>
+        <v>2302</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>16309</v>
+        <v>16693</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.09612430789076618</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02813478071144342</v>
+        <v>0.02906971156768728</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2059189649582567</v>
+        <v>0.210762393744886</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>7</v>
@@ -3872,19 +3872,19 @@
         <v>7799</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>3305</v>
+        <v>3341</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>14720</v>
+        <v>15154</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.07639267011697846</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.0323750931209784</v>
+        <v>0.03272450843890615</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1441826510293999</v>
+        <v>0.1484322014272979</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>12</v>
@@ -3893,19 +3893,19 @@
         <v>15412</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>8801</v>
+        <v>7903</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>26366</v>
+        <v>25822</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.08501283291848952</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.04854443424937468</v>
+        <v>0.04359174979819184</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1454294629994198</v>
+        <v>0.1424309749155473</v>
       </c>
     </row>
     <row r="10">
@@ -3922,19 +3922,19 @@
         <v>66210</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>56705</v>
+        <v>56621</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>72807</v>
+        <v>73556</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8359521942943765</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7159436086661222</v>
+        <v>0.7148870745435052</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9192516332313819</v>
+        <v>0.9287071693744849</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>80</v>
@@ -3943,19 +3943,19 @@
         <v>86446</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>77172</v>
+        <v>76852</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>93159</v>
+        <v>93090</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8467362025395304</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7558943584592537</v>
+        <v>0.7527618474152898</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9124872924863012</v>
+        <v>0.9118118526474062</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>140</v>
@@ -3964,19 +3964,19 @@
         <v>152656</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>139529</v>
+        <v>139267</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>162688</v>
+        <v>162517</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8420249916511187</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7696191651986092</v>
+        <v>0.7681765148937469</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8973600682653438</v>
+        <v>0.8964155287279595</v>
       </c>
     </row>
     <row r="11">
@@ -4068,19 +4068,19 @@
         <v>4036</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9074</v>
+        <v>9239</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.07240623515502032</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01793144079388883</v>
+        <v>0.01787853227004208</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1627884924178023</v>
+        <v>0.1657490070725487</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>7</v>
@@ -4089,19 +4089,19 @@
         <v>7624</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3276</v>
+        <v>3254</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>14350</v>
+        <v>13928</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.09533341756658353</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.04096288486848988</v>
+        <v>0.04069543940272903</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1794511847150514</v>
+        <v>0.1741702684410649</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>11</v>
@@ -4110,19 +4110,19 @@
         <v>11660</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>6334</v>
+        <v>6365</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>19796</v>
+        <v>20651</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.08591620484230145</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.0466723800578512</v>
+        <v>0.0469048963254645</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.145869137922453</v>
+        <v>0.1521712880302528</v>
       </c>
     </row>
     <row r="13">
@@ -4142,7 +4142,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>11892</v>
+        <v>11323</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05621487668583159</v>
@@ -4151,7 +4151,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2133373567412584</v>
+        <v>0.2031283102604846</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>6</v>
@@ -4160,19 +4160,19 @@
         <v>6390</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2637</v>
+        <v>3090</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>12816</v>
+        <v>12839</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07990816794314937</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03297453807625357</v>
+        <v>0.03864195779174452</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.160259550879527</v>
+        <v>0.1605505743385395</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>8</v>
@@ -4181,19 +4181,19 @@
         <v>9524</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>4149</v>
+        <v>4320</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>17521</v>
+        <v>17979</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07017628026924128</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0305733424898045</v>
+        <v>0.0318293050303057</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1291064698233441</v>
+        <v>0.1324833399632059</v>
       </c>
     </row>
     <row r="14">
@@ -4210,19 +4210,19 @@
         <v>48572</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>40856</v>
+        <v>40642</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>53657</v>
+        <v>52711</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8713788881591481</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7329397897591586</v>
+        <v>0.7291034876369485</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9625987496578153</v>
+        <v>0.9456205258171025</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>62</v>
@@ -4231,19 +4231,19 @@
         <v>65954</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>58299</v>
+        <v>57545</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>72359</v>
+        <v>71572</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8247584144902671</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7290341236865404</v>
+        <v>0.7196050841704322</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9048433806333467</v>
+        <v>0.8950073262349083</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>109</v>
@@ -4252,19 +4252,19 @@
         <v>114527</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>104901</v>
+        <v>104190</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>122897</v>
+        <v>121717</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8439075148884573</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7729787178820913</v>
+        <v>0.7677432804611436</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9055874941876612</v>
+        <v>0.8968883810370473</v>
       </c>
     </row>
     <row r="15">
@@ -4359,7 +4359,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7286</v>
+        <v>6757</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03331429869403105</v>
@@ -4368,7 +4368,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.113787273437457</v>
+        <v>0.1055330471886064</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -4380,7 +4380,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5848</v>
+        <v>4220</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01214373885909983</v>
@@ -4389,7 +4389,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06833742951061503</v>
+        <v>0.04931065790834697</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3</v>
@@ -4398,19 +4398,19 @@
         <v>3172</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>941</v>
+        <v>963</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>8301</v>
+        <v>8807</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0212044594277415</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.006288914753222129</v>
+        <v>0.006437551973941255</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05548512908517048</v>
+        <v>0.05886831531179466</v>
       </c>
     </row>
     <row r="17">
@@ -4427,19 +4427,19 @@
         <v>3315</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1021</v>
+        <v>1033</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>8126</v>
+        <v>8788</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.05176819681867625</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01593970111598652</v>
+        <v>0.01613829727983139</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1269116473240706</v>
+        <v>0.137246138659242</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5</v>
@@ -4448,19 +4448,19 @@
         <v>5587</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1284</v>
+        <v>2197</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>11382</v>
+        <v>11266</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.06529289311547232</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01500709276628307</v>
+        <v>0.02567633705799195</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1330133339730417</v>
+        <v>0.1316548291494739</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8</v>
@@ -4469,19 +4469,19 @@
         <v>8902</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4134</v>
+        <v>4274</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>16505</v>
+        <v>16141</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.05950450136407345</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02763194715652233</v>
+        <v>0.02856883551614153</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1103238396291176</v>
+        <v>0.1078944633137152</v>
       </c>
     </row>
     <row r="18">
@@ -4498,19 +4498,19 @@
         <v>58580</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>52549</v>
+        <v>52026</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>61998</v>
+        <v>61939</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9149175044872927</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8207192536935143</v>
+        <v>0.8125512579665352</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9682897448465587</v>
+        <v>0.96737930508157</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>76</v>
@@ -4519,19 +4519,19 @@
         <v>78947</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>72595</v>
+        <v>72488</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>83267</v>
+        <v>83206</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.9225633680254278</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8483283964171487</v>
+        <v>0.8470807939097856</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9730450003203742</v>
+        <v>0.9723269862525102</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>129</v>
@@ -4540,19 +4540,19 @@
         <v>137528</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>129239</v>
+        <v>129900</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>143197</v>
+        <v>143220</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.919291039208185</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.8638885573165072</v>
+        <v>0.8683013350681955</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.957184408574779</v>
+        <v>0.9573371402670787</v>
       </c>
     </row>
     <row r="19">
@@ -4647,7 +4647,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>5634</v>
+        <v>4832</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.03658695443468548</v>
@@ -4656,7 +4656,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1782146403147828</v>
+        <v>0.1528587838780087</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>3</v>
@@ -4665,19 +4665,19 @@
         <v>2979</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>970</v>
+        <v>946</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>7925</v>
+        <v>7917</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.05975925507034494</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01945295053761353</v>
+        <v>0.01897996170209555</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1589703247744284</v>
+        <v>0.1587936067312637</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>4</v>
@@ -4686,19 +4686,19 @@
         <v>4136</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1108</v>
+        <v>1012</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>9479</v>
+        <v>10493</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.05076754732815456</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01359805961082099</v>
+        <v>0.01242125672365775</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.116351597677938</v>
+        <v>0.128798321126094</v>
       </c>
     </row>
     <row r="21">
@@ -4718,7 +4718,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>6411</v>
+        <v>6413</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.06754208567192821</v>
@@ -4727,7 +4727,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2027878195585621</v>
+        <v>0.2028593076819824</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>2</v>
@@ -4739,7 +4739,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>6872</v>
+        <v>6543</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.042208601387111</v>
@@ -4748,7 +4748,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1378348062879677</v>
+        <v>0.1312321295795137</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>4</v>
@@ -4757,19 +4757,19 @@
         <v>4239</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1088</v>
+        <v>1110</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>9849</v>
+        <v>10865</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.05203892813636374</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01335964994228608</v>
+        <v>0.01362499428674518</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1208984075026891</v>
+        <v>0.133361607929291</v>
       </c>
     </row>
     <row r="22">
@@ -4786,19 +4786,19 @@
         <v>28320</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>23793</v>
+        <v>23449</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>30657</v>
+        <v>30590</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8958709598933863</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7526460709648076</v>
+        <v>0.7417752325505212</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.969774665129058</v>
+        <v>0.9676569023195207</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>43</v>
@@ -4807,19 +4807,19 @@
         <v>44771</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>39107</v>
+        <v>38921</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>47859</v>
+        <v>47864</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.898032143542544</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7844239451417655</v>
+        <v>0.7806767157253027</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.959959504065811</v>
+        <v>0.9600712475075611</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>68</v>
@@ -4828,19 +4828,19 @@
         <v>73092</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>65621</v>
+        <v>65829</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>77364</v>
+        <v>77480</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8971935245354817</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8054902312580783</v>
+        <v>0.8080457740113054</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.949630799062378</v>
+        <v>0.9510596590935012</v>
       </c>
     </row>
     <row r="23">
@@ -4935,7 +4935,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>7562</v>
+        <v>6459</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.04142484387810814</v>
@@ -4944,7 +4944,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1461171865904331</v>
+        <v>0.1247988263765607</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>3</v>
@@ -4953,19 +4953,19 @@
         <v>3243</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1061</v>
+        <v>1050</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>8594</v>
+        <v>8632</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.04619111604277585</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01510450179486464</v>
+        <v>0.0149579246544149</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1223993721835304</v>
+        <v>0.1229402808969897</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>5</v>
@@ -4974,19 +4974,19 @@
         <v>5387</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>2137</v>
+        <v>2146</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>11910</v>
+        <v>11872</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.04416858483180007</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0175212206013078</v>
+        <v>0.01759081876842664</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.09764821278921396</v>
+        <v>0.0973357989553396</v>
       </c>
     </row>
     <row r="25">
@@ -5003,19 +5003,19 @@
         <v>5333</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>11651</v>
+        <v>10785</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1030366513242865</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04105800205696806</v>
+        <v>0.04103446774414438</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2251072987529188</v>
+        <v>0.2083728846337575</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>3</v>
@@ -5024,19 +5024,19 @@
         <v>3286</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>61</v>
+        <v>1081</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>8660</v>
+        <v>7745</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04680741766078771</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.000861758146897962</v>
+        <v>0.01539676692168088</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1233352845308738</v>
+        <v>0.1103149204581557</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>8</v>
@@ -5045,19 +5045,19 @@
         <v>8619</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>4256</v>
+        <v>4270</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>15094</v>
+        <v>15684</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.07066786375463868</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03489747816228559</v>
+        <v>0.03500816497075088</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1237515637049234</v>
+        <v>0.1285873765685645</v>
       </c>
     </row>
     <row r="26">
@@ -5074,19 +5074,19 @@
         <v>44279</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>37877</v>
+        <v>37787</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>48540</v>
+        <v>48515</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8555385047976053</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7318287551875809</v>
+        <v>0.7301078865178243</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9378560460916477</v>
+        <v>0.9373705670443034</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>63</v>
@@ -5095,19 +5095,19 @@
         <v>63682</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>58286</v>
+        <v>57277</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>68014</v>
+        <v>67994</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9070014662964364</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8301481431046195</v>
+        <v>0.8157721923904051</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.968699189818407</v>
+        <v>0.968406124521393</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>106</v>
@@ -5116,19 +5116,19 @@
         <v>107962</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>99502</v>
+        <v>100449</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>114381</v>
+        <v>114416</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8851635514135613</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8158028523936854</v>
+        <v>0.8235714997804077</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9377946912860731</v>
+        <v>0.938081774796398</v>
       </c>
     </row>
     <row r="27">
@@ -5223,7 +5223,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>6404</v>
+        <v>6835</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.0177193549087776</v>
@@ -5232,7 +5232,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.05704823499122776</v>
+        <v>0.06088464375855206</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>3</v>
@@ -5241,19 +5241,19 @@
         <v>3123</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>929</v>
+        <v>945</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>8572</v>
+        <v>8374</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.02200043885048771</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.006541938653752223</v>
+        <v>0.006656540696261472</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.06037924568904664</v>
+        <v>0.05898414163424887</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>5</v>
@@ -5262,19 +5262,19 @@
         <v>5112</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2000</v>
+        <v>1976</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>11419</v>
+        <v>11213</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.02010995967061646</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.007867538161814999</v>
+        <v>0.007773452173128904</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.04491729504950089</v>
+        <v>0.04410547681372035</v>
       </c>
     </row>
     <row r="29">
@@ -5291,19 +5291,19 @@
         <v>6071</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2037</v>
+        <v>2067</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>12478</v>
+        <v>11892</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.05407569676293874</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01814785005973275</v>
+        <v>0.01841285359361957</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1111457120592067</v>
+        <v>0.1059339980718785</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>10</v>
@@ -5312,19 +5312,19 @@
         <v>10451</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>5278</v>
+        <v>5018</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>18279</v>
+        <v>17578</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.07361500844109864</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.03717570998537183</v>
+        <v>0.0353469485772735</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1287600775509768</v>
+        <v>0.1238198573580805</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>16</v>
@@ -5333,19 +5333,19 @@
         <v>16521</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>9546</v>
+        <v>9624</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>26211</v>
+        <v>25887</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.06498666514778281</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.03754844917972929</v>
+        <v>0.03785434686310605</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1031007238124174</v>
+        <v>0.1018272781927585</v>
       </c>
     </row>
     <row r="30">
@@ -5362,19 +5362,19 @@
         <v>104203</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>97143</v>
+        <v>97448</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>108444</v>
+        <v>108418</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.9282049483282837</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.865312184612159</v>
+        <v>0.8680341384933752</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.9659834849644805</v>
+        <v>0.9657499903142124</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>116</v>
@@ -5383,19 +5383,19 @@
         <v>128388</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>119725</v>
+        <v>120785</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>133931</v>
+        <v>134511</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.9043845527084137</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.843361617804676</v>
+        <v>0.8508257737580071</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.9434260073700895</v>
+        <v>0.9475149894985756</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>208</v>
@@ -5404,19 +5404,19 @@
         <v>232592</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>222545</v>
+        <v>222256</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>240640</v>
+        <v>240149</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.9149033751816007</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.8753813586663243</v>
+        <v>0.8742453698855546</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.9465613133758995</v>
+        <v>0.9446264784431631</v>
       </c>
     </row>
     <row r="31">
@@ -5521,19 +5521,19 @@
         <v>3295</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>993</v>
+        <v>1002</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>8852</v>
+        <v>8764</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.02004230745257541</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.00604079483233373</v>
+        <v>0.006097190894330673</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.05383823862266009</v>
+        <v>0.05330445991927761</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>3</v>
@@ -5542,19 +5542,19 @@
         <v>3295</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>8825</v>
+        <v>9070</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01155557260253443</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.003494089705496846</v>
+        <v>0.003484000399915208</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.03094803378872921</v>
+        <v>0.03180407897501282</v>
       </c>
     </row>
     <row r="33">
@@ -5571,19 +5571,19 @@
         <v>5563</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>2107</v>
+        <v>2024</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>15090</v>
+        <v>14645</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.04606877322510627</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.01744733095976931</v>
+        <v>0.01675987984442687</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1249680023081029</v>
+        <v>0.1212827399268906</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>9</v>
@@ -5592,19 +5592,19 @@
         <v>10093</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>4503</v>
+        <v>4703</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>17048</v>
+        <v>17994</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.06138779069413443</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.02739048882104995</v>
+        <v>0.02860197468255606</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.1036865053614669</v>
+        <v>0.1094432442106686</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>13</v>
@@ -5613,19 +5613,19 @@
         <v>15656</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>8720</v>
+        <v>8896</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>26466</v>
+        <v>26288</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.05490109051101345</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.03057917653023551</v>
+        <v>0.03119604824147144</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.09280719391291448</v>
+        <v>0.09218229116274967</v>
       </c>
     </row>
     <row r="34">
@@ -5642,19 +5642,19 @@
         <v>115189</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>105662</v>
+        <v>106107</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>118645</v>
+        <v>118728</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.9539312267748937</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.8750319976918973</v>
+        <v>0.8787172600731096</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.9825526690402308</v>
+        <v>0.9832401201555734</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>139</v>
@@ -5663,19 +5663,19 @@
         <v>151029</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>143506</v>
+        <v>142514</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>157692</v>
+        <v>157581</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.9185699018532901</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.872815099561032</v>
+        <v>0.8667844692862544</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.9590961864374625</v>
+        <v>0.9584244366919857</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>241</v>
@@ -5684,19 +5684,19 @@
         <v>266218</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>255103</v>
+        <v>255189</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>274211</v>
+        <v>273881</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.9335433368864521</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.894566784989725</v>
+        <v>0.8948708806127947</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.9615748008701839</v>
+        <v>0.960414868559727</v>
       </c>
     </row>
     <row r="35">
@@ -5788,19 +5788,19 @@
         <v>16839</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>10318</v>
+        <v>9982</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>28768</v>
+        <v>28577</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.03008852188310793</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.01843682097584751</v>
+        <v>0.01783689581927441</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.0514048807776218</v>
+        <v>0.05106426260157142</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>29</v>
@@ -5809,19 +5809,19 @@
         <v>32377</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>21712</v>
+        <v>23043</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>45824</v>
+        <v>45013</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.04357768312548357</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.02922287547570205</v>
+        <v>0.0310147081055527</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.0616768328174659</v>
+        <v>0.0605844147861543</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>44</v>
@@ -5830,19 +5830,19 @@
         <v>49216</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>36400</v>
+        <v>36879</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>65355</v>
+        <v>66123</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.037782377985343</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.02794409631425211</v>
+        <v>0.02831176101754642</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.05017258488872389</v>
+        <v>0.05076214936859962</v>
       </c>
     </row>
     <row r="37">
@@ -5859,19 +5859,19 @@
         <v>37159</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>25479</v>
+        <v>25458</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>52803</v>
+        <v>53171</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.0663980413942242</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.04552825736442501</v>
+        <v>0.04549022809065446</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.09435240129601363</v>
+        <v>0.09501068454393155</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>47</v>
@@ -5880,19 +5880,19 @@
         <v>51087</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>38937</v>
+        <v>36850</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>67073</v>
+        <v>67063</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.06876054712910422</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.05240655693638276</v>
+        <v>0.04959744354899958</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.0902758258425497</v>
+        <v>0.09026329430920445</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>78</v>
@@ -5901,19 +5901,19 @@
         <v>88246</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>70040</v>
+        <v>70478</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>108099</v>
+        <v>106655</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.06774555135709501</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.05376919942716892</v>
+        <v>0.05410487814552413</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.08298603563856241</v>
+        <v>0.0818779806716598</v>
       </c>
     </row>
     <row r="38">
@@ -5930,19 +5930,19 @@
         <v>505640</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>487773</v>
+        <v>487365</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>519302</v>
+        <v>519776</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.9035134367226678</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.8715881168514787</v>
+        <v>0.8708596634090122</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.9279264542289305</v>
+        <v>0.9287743438234454</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>618</v>
@@ -5951,19 +5951,19 @@
         <v>659511</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>639492</v>
+        <v>640420</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>676385</v>
+        <v>676420</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.8876617697454122</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.8607184252732117</v>
+        <v>0.8619668703187094</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.9103738134257569</v>
+        <v>0.9104203793148047</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>1076</v>
@@ -5972,19 +5972,19 @@
         <v>1165150</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1138423</v>
+        <v>1143677</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1187000</v>
+        <v>1188050</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.894472070657562</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.8739537377143707</v>
+        <v>0.8779871212208058</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.9112458313969892</v>
+        <v>0.9120517692450885</v>
       </c>
     </row>
     <row r="39">
@@ -6320,19 +6320,19 @@
         <v>2432</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>775</v>
+        <v>762</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6648</v>
+        <v>6473</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06251529941889289</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01993005247585046</v>
+        <v>0.01957923995108958</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1709068980289086</v>
+        <v>0.1664073941933965</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -6344,7 +6344,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5086</v>
+        <v>5131</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02100587542401088</v>
@@ -6353,7 +6353,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1029773402457748</v>
+        <v>0.1038889343626112</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -6362,19 +6362,19 @@
         <v>3469</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1022</v>
+        <v>1009</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>8160</v>
+        <v>8265</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03929335192040028</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01157470541538438</v>
+        <v>0.01142741859862435</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09242563151425275</v>
+        <v>0.09361689716903346</v>
       </c>
     </row>
     <row r="5">
@@ -6391,19 +6391,19 @@
         <v>4937</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1616</v>
+        <v>2348</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>9782</v>
+        <v>9381</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1269174614576022</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04154104581989886</v>
+        <v>0.06037263844606929</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2515000948307896</v>
+        <v>0.2411718229033236</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>6</v>
@@ -6412,19 +6412,19 @@
         <v>7922</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2489</v>
+        <v>3364</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>14923</v>
+        <v>16397</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1603881256828388</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05038893904132091</v>
+        <v>0.06811247493740551</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3021342881733344</v>
+        <v>0.3319847138050572</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>12</v>
@@ -6433,19 +6433,19 @@
         <v>12858</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>7116</v>
+        <v>7126</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>21467</v>
+        <v>21538</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1456422215861443</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.08059753903908008</v>
+        <v>0.08071847515155139</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2431538948183357</v>
+        <v>0.2439587923073267</v>
       </c>
     </row>
     <row r="6">
@@ -6462,19 +6462,19 @@
         <v>31528</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>26389</v>
+        <v>26913</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>35621</v>
+        <v>35548</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.8105672391235049</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.6784536157963744</v>
+        <v>0.6919275789251931</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9158005092633512</v>
+        <v>0.9139231609766233</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>36</v>
@@ -6483,19 +6483,19 @@
         <v>40432</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>33242</v>
+        <v>32123</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>46035</v>
+        <v>45153</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.8186059988931503</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.6730376907027532</v>
+        <v>0.6503779485870671</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9320450661462049</v>
+        <v>0.9142014229407148</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>69</v>
@@ -6504,19 +6504,19 @@
         <v>71960</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>63336</v>
+        <v>62648</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>78711</v>
+        <v>78404</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.8150644264934553</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.7173887658407515</v>
+        <v>0.7095976428741965</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.8915387876771655</v>
+        <v>0.8880575242637502</v>
       </c>
     </row>
     <row r="7">
@@ -6624,7 +6624,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>5971</v>
+        <v>6789</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01169017170263493</v>
@@ -6633,7 +6633,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.05181958469769304</v>
+        <v>0.05891596731638929</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1</v>
@@ -6645,7 +6645,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>8358</v>
+        <v>6743</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.006651277175602036</v>
@@ -6654,7 +6654,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.04126977341059864</v>
+        <v>0.03329703282665852</v>
       </c>
     </row>
     <row r="9">
@@ -6684,19 +6684,19 @@
         <v>7991</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>2754</v>
+        <v>2732</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>15680</v>
+        <v>16890</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.06934892340283048</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.02390302591481482</v>
+        <v>0.0237096487445805</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.136079227926159</v>
+        <v>0.1465787021364942</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>6</v>
@@ -6705,19 +6705,19 @@
         <v>7991</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>2682</v>
+        <v>3952</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>16109</v>
+        <v>17449</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.03945698344857105</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01324388686811186</v>
+        <v>0.01951369555062855</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.07954088395950125</v>
+        <v>0.08615860636466069</v>
       </c>
     </row>
     <row r="10">
@@ -6747,19 +6747,19 @@
         <v>105890</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>98310</v>
+        <v>96923</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>111220</v>
+        <v>111263</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9189609048945346</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8531785714443849</v>
+        <v>0.8411380704375048</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9652133855759875</v>
+        <v>0.9655931422234558</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>178</v>
@@ -6768,19 +6768,19 @@
         <v>193185</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>184354</v>
+        <v>183761</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>198661</v>
+        <v>198424</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9538917393758269</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9102882931468925</v>
+        <v>0.9073562730050586</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9809324646216901</v>
+        <v>0.9797595549526869</v>
       </c>
     </row>
     <row r="11">
@@ -6885,19 +6885,19 @@
         <v>4477</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1230</v>
+        <v>1234</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>12063</v>
+        <v>11974</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.05603825202687125</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01539825270651756</v>
+        <v>0.01544963995606581</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1509857184063206</v>
+        <v>0.1498721111504753</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>3</v>
@@ -6906,19 +6906,19 @@
         <v>4477</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1232</v>
+        <v>1223</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>13389</v>
+        <v>11892</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03121300164974522</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.008588642653284776</v>
+        <v>0.008524931331646078</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.09334211302731155</v>
+        <v>0.08290147678397584</v>
       </c>
     </row>
     <row r="13">
@@ -6938,7 +6938,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6511</v>
+        <v>6169</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01970043192328842</v>
@@ -6947,7 +6947,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1024634802516183</v>
+        <v>0.09708275511167674</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>0</v>
@@ -6972,7 +6972,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>7046</v>
+        <v>5435</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.008727398470577659</v>
@@ -6981,7 +6981,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04912374455679766</v>
+        <v>0.03789133912714217</v>
       </c>
     </row>
     <row r="14">
@@ -6998,7 +6998,7 @@
         <v>62294</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>57035</v>
+        <v>57377</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>63546</v>
@@ -7007,7 +7007,7 @@
         <v>0.9802995680767116</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8975365197483862</v>
+        <v>0.9029172448883228</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -7019,19 +7019,19 @@
         <v>75420</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>67834</v>
+        <v>67923</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>78667</v>
+        <v>78663</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9439617479731287</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8490142815936794</v>
+        <v>0.8501278888495246</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9846017472934825</v>
+        <v>0.9845503600439341</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>137</v>
@@ -7040,19 +7040,19 @@
         <v>137714</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>129890</v>
+        <v>129939</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>142151</v>
+        <v>141450</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9600595998796772</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9055150519064056</v>
+        <v>0.9058573971694747</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9909957813287065</v>
+        <v>0.9861071633285033</v>
       </c>
     </row>
     <row r="15">
@@ -7147,7 +7147,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4027</v>
+        <v>4032</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01255976103389439</v>
@@ -7156,7 +7156,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06223410686689025</v>
+        <v>0.06230772774793544</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -7181,7 +7181,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>3646</v>
+        <v>4119</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.005200505865878457</v>
@@ -7190,7 +7190,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02332902937764826</v>
+        <v>0.02635625104179075</v>
       </c>
     </row>
     <row r="17">
@@ -7207,19 +7207,19 @@
         <v>2642</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>6974</v>
+        <v>7114</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.04082321823409072</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01282593980738915</v>
+        <v>0.01279887702224028</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1077741228735082</v>
+        <v>0.1099288947972285</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4</v>
@@ -7228,19 +7228,19 @@
         <v>6764</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2131</v>
+        <v>2176</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>15944</v>
+        <v>15504</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.07386059524746985</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02326743449754435</v>
+        <v>0.0237569448924291</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1741107255242653</v>
+        <v>0.169304639180396</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7</v>
@@ -7249,19 +7249,19 @@
         <v>9405</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3979</v>
+        <v>4168</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>17944</v>
+        <v>20759</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.0601811094286188</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0254620214225481</v>
+        <v>0.02666831357288514</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1148154766492154</v>
+        <v>0.1328270751961138</v>
       </c>
     </row>
     <row r="18">
@@ -7278,19 +7278,19 @@
         <v>61257</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>56780</v>
+        <v>56546</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>63853</v>
+        <v>63837</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9466170207320149</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8774185899365079</v>
+        <v>0.8738028092580994</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9867307168266827</v>
+        <v>0.9864718161946566</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>72</v>
@@ -7299,19 +7299,19 @@
         <v>84810</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>75630</v>
+        <v>76070</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>89443</v>
+        <v>89398</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.9261394047525301</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8258892744757341</v>
+        <v>0.8306953608196034</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9767325655024556</v>
+        <v>0.9762430551075708</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>139</v>
@@ -7320,19 +7320,19 @@
         <v>146067</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>136752</v>
+        <v>134705</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>151424</v>
+        <v>151414</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9346183847055027</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.8750151705674704</v>
+        <v>0.8619210018294593</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9688950555354925</v>
+        <v>0.9688306068301142</v>
       </c>
     </row>
     <row r="19">
@@ -7427,7 +7427,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>4491</v>
+        <v>4529</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01898938165383374</v>
@@ -7436,7 +7436,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.106715118207106</v>
+        <v>0.107639292517428</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>0</v>
@@ -7461,7 +7461,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>5347</v>
+        <v>4028</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.008628165120565549</v>
@@ -7470,7 +7470,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.05773651262868709</v>
+        <v>0.04349224471275118</v>
       </c>
     </row>
     <row r="21">
@@ -7500,19 +7500,19 @@
         <v>4182</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1147</v>
+        <v>1154</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>9638</v>
+        <v>9408</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.08275155597423516</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.02270031276723191</v>
+        <v>0.02282803408856154</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1907386528523902</v>
+        <v>0.1861822753791019</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>4</v>
@@ -7521,19 +7521,19 @@
         <v>4182</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>952</v>
+        <v>1148</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>9446</v>
+        <v>9583</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.04515190676263083</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01028027877933214</v>
+        <v>0.01239550143391943</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1019996842728119</v>
+        <v>0.1034715114751987</v>
       </c>
     </row>
     <row r="22">
@@ -7550,7 +7550,7 @@
         <v>41281</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>37589</v>
+        <v>37551</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>42080</v>
@@ -7559,7 +7559,7 @@
         <v>0.9810106183461662</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.893284881792892</v>
+        <v>0.8923607074825712</v>
       </c>
       <c r="I22" s="6" t="n">
         <v>1</v>
@@ -7571,19 +7571,19 @@
         <v>46350</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>40894</v>
+        <v>41124</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>49385</v>
+        <v>49378</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9172484440257649</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8092613471476097</v>
+        <v>0.8138177246208944</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9772996872327681</v>
+        <v>0.9771719659114384</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>88</v>
@@ -7592,19 +7592,19 @@
         <v>87631</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>82336</v>
+        <v>82314</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>91424</v>
+        <v>90888</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9462199281168037</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8890390401555746</v>
+        <v>0.8888057708869648</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9871682970711766</v>
+        <v>0.9813864167880717</v>
       </c>
     </row>
     <row r="23">
@@ -7699,16 +7699,16 @@
         <v>782</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6264</v>
+        <v>6823</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.05304739552716333</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01613365834921974</v>
+        <v>0.0161406082435075</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1292883957574309</v>
+        <v>0.1408336984280696</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>3</v>
@@ -7717,19 +7717,19 @@
         <v>4546</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1220</v>
+        <v>1193</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>12472</v>
+        <v>12391</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.06746705544774284</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01810850795566573</v>
+        <v>0.01770086278299314</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1850801313548712</v>
+        <v>0.1838734010807928</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>6</v>
@@ -7738,19 +7738,19 @@
         <v>7116</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>2710</v>
+        <v>2980</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>15653</v>
+        <v>15279</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.0614362165416414</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02339441679525491</v>
+        <v>0.02572348070029612</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1351333763208424</v>
+        <v>0.1319029258894941</v>
       </c>
     </row>
     <row r="25">
@@ -7767,19 +7767,19 @@
         <v>3251</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>810</v>
+        <v>823</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>7490</v>
+        <v>7381</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.06709609908146619</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01672342281976747</v>
+        <v>0.01698044171637434</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1546066781635621</v>
+        <v>0.1523567032272344</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2</v>
@@ -7791,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>7558</v>
+        <v>8733</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03640538033693026</v>
@@ -7800,7 +7800,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1121619553207228</v>
+        <v>0.1295995306327311</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>6</v>
@@ -7809,19 +7809,19 @@
         <v>5704</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2053</v>
+        <v>2417</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>11576</v>
+        <v>12495</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04924138213449036</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01772563899494272</v>
+        <v>0.02086521044812196</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.09993338753452952</v>
+        <v>0.107871529362134</v>
       </c>
     </row>
     <row r="26">
@@ -7838,19 +7838,19 @@
         <v>42626</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>37452</v>
+        <v>37655</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>45935</v>
+        <v>46008</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8798565053913705</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7730702504569379</v>
+        <v>0.7772610699480305</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.948176615116018</v>
+        <v>0.9496676642647608</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>54</v>
@@ -7859,19 +7859,19 @@
         <v>60388</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>52477</v>
+        <v>52107</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>64933</v>
+        <v>64964</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8961275642153269</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7787357887073428</v>
+        <v>0.7732313828085516</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9635751238653144</v>
+        <v>0.9640249713949104</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>102</v>
@@ -7880,19 +7880,19 @@
         <v>103014</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>93059</v>
+        <v>94229</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>108868</v>
+        <v>108615</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8893224013238682</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8033824380535272</v>
+        <v>0.8134870198410222</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9398589115588889</v>
+        <v>0.9376744460893738</v>
       </c>
     </row>
     <row r="27">
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>8842</v>
+        <v>8724</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01677290209424004</v>
@@ -8009,7 +8009,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.05989547976051236</v>
+        <v>0.05909472456382273</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2</v>
@@ -8021,7 +8021,7 @@
         <v>0</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>7552</v>
+        <v>8231</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.009530399162336502</v>
@@ -8030,7 +8030,7 @@
         <v>0</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02906810145052786</v>
+        <v>0.03168003857631661</v>
       </c>
     </row>
     <row r="29">
@@ -8047,19 +8047,19 @@
         <v>4743</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1806</v>
+        <v>1808</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>9706</v>
+        <v>10415</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.04228272894190879</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01609568025320125</v>
+        <v>0.01612018361615037</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.08651836859420199</v>
+        <v>0.09283814540136566</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>7</v>
@@ -8068,19 +8068,19 @@
         <v>8645</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3666</v>
+        <v>3831</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>17743</v>
+        <v>17612</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.05856260235310478</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.02483518907354112</v>
+        <v>0.02595267381031707</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1201869529608562</v>
+        <v>0.1193030312629139</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>12</v>
@@ -8089,19 +8089,19 @@
         <v>13389</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>7479</v>
+        <v>7386</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>23430</v>
+        <v>22810</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.05153298814268762</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.02878485546996248</v>
+        <v>0.02842656156223298</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.09018319677757912</v>
+        <v>0.08779355940837669</v>
       </c>
     </row>
     <row r="30">
@@ -8118,19 +8118,19 @@
         <v>107442</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>102479</v>
+        <v>101770</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>110379</v>
+        <v>110377</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.9577172710580912</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.9134816314057981</v>
+        <v>0.9071618545986343</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.9839043197467987</v>
+        <v>0.9838798163838496</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>116</v>
@@ -8139,19 +8139,19 @@
         <v>136504</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>128136</v>
+        <v>127337</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>142533</v>
+        <v>142257</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.9246644955526552</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.8679834341442917</v>
+        <v>0.8625681057572988</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.9655103261308201</v>
+        <v>0.9636367064596848</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>220</v>
@@ -8160,19 +8160,19 @@
         <v>243945</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>233439</v>
+        <v>233886</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>250451</v>
+        <v>250403</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.9389366126949759</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.8984978602297272</v>
+        <v>0.9002198673522995</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.9639773473146572</v>
+        <v>0.9637938634502258</v>
       </c>
     </row>
     <row r="31">
@@ -8314,7 +8314,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>6468</v>
+        <v>7108</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.01026128140411832</v>
@@ -8323,7 +8323,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.04820558714699689</v>
+        <v>0.0529778219233756</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>2</v>
@@ -8335,7 +8335,7 @@
         <v>0</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>7857</v>
+        <v>10161</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.014691888506974</v>
@@ -8344,7 +8344,7 @@
         <v>0</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.04456713903545694</v>
+        <v>0.05763445545957396</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>3</v>
@@ -8353,19 +8353,19 @@
         <v>3967</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>10547</v>
+        <v>11349</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.01277718980953582</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.004144009428245681</v>
+        <v>0.004148922136004368</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.03397316392680809</v>
+        <v>0.03655375881903823</v>
       </c>
     </row>
     <row r="34">
@@ -8382,7 +8382,7 @@
         <v>132791</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>127700</v>
+        <v>127060</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>134168</v>
@@ -8391,7 +8391,7 @@
         <v>0.9897387185958817</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.951794412853005</v>
+        <v>0.947022178076627</v>
       </c>
       <c r="I34" s="6" t="n">
         <v>1</v>
@@ -8403,7 +8403,7 @@
         <v>173707</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>168440</v>
+        <v>166136</v>
       </c>
       <c r="M34" s="5" t="n">
         <v>176297</v>
@@ -8412,7 +8412,7 @@
         <v>0.985308111493026</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.9554328609645429</v>
+        <v>0.942365544540426</v>
       </c>
       <c r="P34" s="6" t="n">
         <v>1</v>
@@ -8424,19 +8424,19 @@
         <v>306498</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>299918</v>
+        <v>299116</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>309178</v>
+        <v>309177</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.9872228101904642</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.9660268360731917</v>
+        <v>0.9634462411809619</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.9958559905717543</v>
+        <v>0.9958510778639956</v>
       </c>
     </row>
     <row r="35">
@@ -8528,19 +8528,19 @@
         <v>6613</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>3234</v>
+        <v>3203</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>12021</v>
+        <v>13040</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.01118388622846911</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.005468254944742038</v>
+        <v>0.005416284807121394</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.02032863556362116</v>
+        <v>0.02205160298744004</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>10</v>
@@ -8549,19 +8549,19 @@
         <v>13884</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>6955</v>
+        <v>7280</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>24693</v>
+        <v>26013</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.01784782834895922</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.008940272718634564</v>
+        <v>0.009358517798786789</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.03174221929106872</v>
+        <v>0.03343917953314642</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>18</v>
@@ -8570,19 +8570,19 @@
         <v>20498</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>12220</v>
+        <v>12249</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>31778</v>
+        <v>31752</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.01496993924234497</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.008924415314121451</v>
+        <v>0.008945577389983278</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.02320836304108831</v>
+        <v>0.02318918573691664</v>
       </c>
     </row>
     <row r="37">
@@ -8599,19 +8599,19 @@
         <v>18201</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>11266</v>
+        <v>10929</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>26265</v>
+        <v>26479</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.03077977113343459</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.01905200172118266</v>
+        <v>0.01848157409535177</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.04441772988693886</v>
+        <v>0.04477834645811667</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>31</v>
@@ -8620,19 +8620,19 @@
         <v>40547</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>27400</v>
+        <v>26966</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>56051</v>
+        <v>56478</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.05212113370065159</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.03522180008001114</v>
+        <v>0.03466397537730376</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.07205129900428232</v>
+        <v>0.07259975392921073</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>51</v>
@@ -8641,19 +8641,19 @@
         <v>58748</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>42940</v>
+        <v>43730</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>76834</v>
+        <v>76591</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.04290465586485943</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.03136030690703977</v>
+        <v>0.03193662683432031</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.05611356907811602</v>
+        <v>0.05593591759644628</v>
       </c>
     </row>
     <row r="38">
@@ -8670,19 +8670,19 @@
         <v>566514</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>557096</v>
+        <v>555653</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>574492</v>
+        <v>574168</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.9580363426380963</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.9421091712667508</v>
+        <v>0.9396695154235284</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.9715290721533963</v>
+        <v>0.9709800627794227</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>614</v>
@@ -8691,19 +8691,19 @@
         <v>723500</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>706029</v>
+        <v>704444</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>739037</v>
+        <v>737223</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.9300310379503892</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.9075723961090284</v>
+        <v>0.9055350982070829</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.9500028249116796</v>
+        <v>0.9476716181397319</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>1213</v>
@@ -8712,19 +8712,19 @@
         <v>1290014</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1269536</v>
+        <v>1269943</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1306719</v>
+        <v>1307436</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.9421254048927956</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.927170303085781</v>
+        <v>0.927467557816513</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.95432590658793</v>
+        <v>0.9548495474674948</v>
       </c>
     </row>
     <row r="39">
@@ -9063,7 +9063,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4740</v>
+        <v>4848</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01452442622984818</v>
@@ -9072,7 +9072,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07776706705363871</v>
+        <v>0.07953921159470595</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -9081,19 +9081,19 @@
         <v>2927</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1103</v>
+        <v>1096</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6275</v>
+        <v>6058</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04484493172253375</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01690307872797596</v>
+        <v>0.01678684516579107</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09612968947549959</v>
+        <v>0.09280265322323923</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>6</v>
@@ -9102,19 +9102,19 @@
         <v>3813</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1301</v>
+        <v>1649</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>8241</v>
+        <v>7904</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03020368692904552</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01030768871072401</v>
+        <v>0.01306649782901138</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06528579604468458</v>
+        <v>0.0626153503874038</v>
       </c>
     </row>
     <row r="5">
@@ -9134,7 +9134,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5003</v>
+        <v>5797</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02664680306672896</v>
@@ -9143,7 +9143,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.08207361055596611</v>
+        <v>0.09510975094753656</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>8</v>
@@ -9152,19 +9152,19 @@
         <v>4521</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2100</v>
+        <v>2243</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>8696</v>
+        <v>8553</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.06926060383047467</v>
+        <v>0.06926060383047468</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03217035374083557</v>
+        <v>0.03436493510798598</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1332140018585365</v>
+        <v>0.1310247607883309</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>10</v>
@@ -9173,19 +9173,19 @@
         <v>6145</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>3345</v>
+        <v>2886</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>11125</v>
+        <v>11018</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.04868314054532433</v>
+        <v>0.04868314054532432</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0264964496945274</v>
+        <v>0.02286097065321399</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.08813030618767921</v>
+        <v>0.08728468272555355</v>
       </c>
     </row>
     <row r="6">
@@ -9202,19 +9202,19 @@
         <v>58445</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>54203</v>
+        <v>54395</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>60221</v>
+        <v>60215</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.958828770703423</v>
+        <v>0.9588287707034228</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.889235903316699</v>
+        <v>0.8923762502727128</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9879636912503885</v>
+        <v>0.9878637305137461</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>119</v>
@@ -9223,19 +9223,19 @@
         <v>57828</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>53016</v>
+        <v>53620</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>61016</v>
+        <v>61128</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.8858944644469916</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8121812525565263</v>
+        <v>0.8214366137920207</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9347422685510648</v>
+        <v>0.9364583818523967</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>199</v>
@@ -9244,19 +9244,19 @@
         <v>116273</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>110384</v>
+        <v>110121</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>119999</v>
+        <v>120237</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.92111317252563</v>
+        <v>0.9211131725256301</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8744617677594685</v>
+        <v>0.8723763680851929</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9506302218219222</v>
+        <v>0.9525151624733063</v>
       </c>
     </row>
     <row r="7">
@@ -9351,7 +9351,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4550</v>
+        <v>4562</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01037287233421965</v>
@@ -9360,7 +9360,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.05148402433977434</v>
+        <v>0.05161911701103278</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>9</v>
@@ -9369,19 +9369,19 @@
         <v>6942</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>3228</v>
+        <v>3219</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>12859</v>
+        <v>12037</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.0512956976545248</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02385173325201666</v>
+        <v>0.02378495814893638</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.0950207341965891</v>
+        <v>0.08894447767329304</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>10</v>
@@ -9390,19 +9390,19 @@
         <v>7858</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3687</v>
+        <v>3657</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>13712</v>
+        <v>14235</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.03512911357879047</v>
+        <v>0.03512911357879046</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01648042982297186</v>
+        <v>0.01634866519966394</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.06129409313013098</v>
+        <v>0.06363413711742091</v>
       </c>
     </row>
     <row r="9">
@@ -9419,19 +9419,19 @@
         <v>5635</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2742</v>
+        <v>2736</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>11444</v>
+        <v>11322</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.06376568789607757</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.03102364416743477</v>
+        <v>0.03096516146838821</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1295015716711861</v>
+        <v>0.1281209203865304</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>28</v>
@@ -9440,19 +9440,19 @@
         <v>17589</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>11822</v>
+        <v>12265</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>23823</v>
+        <v>24032</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1299742738137561</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.08735922000391295</v>
+        <v>0.09063345176494556</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1760357056275497</v>
+        <v>0.1775865583770738</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>34</v>
@@ -9461,19 +9461,19 @@
         <v>23224</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>16139</v>
+        <v>16505</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>31576</v>
+        <v>32137</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1038185364619039</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.07214534209219001</v>
+        <v>0.07378350532259677</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1411531603523624</v>
+        <v>0.143661450633786</v>
       </c>
     </row>
     <row r="10">
@@ -9490,19 +9490,19 @@
         <v>81821</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>76056</v>
+        <v>76135</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>85517</v>
+        <v>85558</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.925861439769703</v>
+        <v>0.9258614397697028</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8606198551651161</v>
+        <v>0.8615205657546412</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9676770152538771</v>
+        <v>0.9681436103628108</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>186</v>
@@ -9511,19 +9511,19 @@
         <v>110797</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>102578</v>
+        <v>103946</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>117638</v>
+        <v>117733</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8187300285317191</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7579984920664135</v>
+        <v>0.7681041648074278</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8692836081931479</v>
+        <v>0.869985621678556</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>274</v>
@@ -9532,19 +9532,19 @@
         <v>192618</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>183264</v>
+        <v>181887</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>201073</v>
+        <v>200370</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8610523499593056</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8192378050546583</v>
+        <v>0.8130810107128007</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8988463710045348</v>
+        <v>0.8957051063697912</v>
       </c>
     </row>
     <row r="11">
@@ -9636,19 +9636,19 @@
         <v>2917</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1082</v>
+        <v>1140</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6411</v>
+        <v>6429</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.04035706690656375</v>
+        <v>0.04035706690656374</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01496285817444352</v>
+        <v>0.01576770198715574</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.0886901893883193</v>
+        <v>0.08894266605060719</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>4</v>
@@ -9657,19 +9657,19 @@
         <v>1949</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>4623</v>
+        <v>4755</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.02270169401286832</v>
+        <v>0.02270169401286831</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.005875303511275683</v>
+        <v>0.005751387925366848</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.05385025326291513</v>
+        <v>0.05538790601258062</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>9</v>
@@ -9678,19 +9678,19 @@
         <v>4866</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>2528</v>
+        <v>2449</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>8840</v>
+        <v>8907</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.03077212835446813</v>
+        <v>0.03077212835446814</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01598633336313871</v>
+        <v>0.01548573868198175</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.05589972219800602</v>
+        <v>0.0563281301295395</v>
       </c>
     </row>
     <row r="13">
@@ -9707,19 +9707,19 @@
         <v>3620</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1550</v>
+        <v>1484</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>7198</v>
+        <v>6798</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05007437977199975</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02144893870243446</v>
+        <v>0.02053494110945137</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09958392218638186</v>
+        <v>0.09404223511265251</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>11</v>
@@ -9728,19 +9728,19 @@
         <v>5892</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3267</v>
+        <v>3102</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>10278</v>
+        <v>10184</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.06863604836297374</v>
+        <v>0.06863604836297375</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03805744311393099</v>
+        <v>0.03613520163670198</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1197245673152059</v>
+        <v>0.1186242124511176</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>18</v>
@@ -9749,19 +9749,19 @@
         <v>9512</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>5901</v>
+        <v>6009</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>13924</v>
+        <v>14246</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.06015133787082187</v>
+        <v>0.06015133787082188</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03731931195772867</v>
+        <v>0.03799908141509609</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08804920239915841</v>
+        <v>0.09008951577262242</v>
       </c>
     </row>
     <row r="14">
@@ -9778,19 +9778,19 @@
         <v>65748</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>61589</v>
+        <v>61835</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>68879</v>
+        <v>68846</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9095685533214365</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.85202563226106</v>
+        <v>0.8554310923296367</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9528764235282637</v>
+        <v>0.9524191694794951</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>154</v>
@@ -9799,19 +9799,19 @@
         <v>78009</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>73821</v>
+        <v>72993</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>81204</v>
+        <v>81314</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9086622576241581</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8598813514612634</v>
+        <v>0.8502445104068843</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9458834206738808</v>
+        <v>0.9471658957113586</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>264</v>
@@ -9820,19 +9820,19 @@
         <v>143757</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>138171</v>
+        <v>138066</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>148403</v>
+        <v>148407</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9090765337747099</v>
+        <v>0.9090765337747101</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8737547898078589</v>
+        <v>0.8730887921154963</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9384552820621325</v>
+        <v>0.9384807949183351</v>
       </c>
     </row>
     <row r="15">
@@ -9927,7 +9927,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2819</v>
+        <v>2360</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.006848384048270347</v>
@@ -9936,7 +9936,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03389881838315878</v>
+        <v>0.02837920359870013</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -9945,19 +9945,19 @@
         <v>3309</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1524</v>
+        <v>1455</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>6171</v>
+        <v>5958</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02994803672884353</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01379181302498225</v>
+        <v>0.0131665455136507</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05584521815818452</v>
+        <v>0.05391838702285962</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>9</v>
@@ -9966,19 +9966,19 @@
         <v>3879</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1846</v>
+        <v>1969</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>7251</v>
+        <v>7277</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02002920836759338</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.009531390113816901</v>
+        <v>0.01016825212178335</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03744421408754006</v>
+        <v>0.03757382270114884</v>
       </c>
     </row>
     <row r="17">
@@ -9995,19 +9995,19 @@
         <v>5063</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2243</v>
+        <v>2392</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>9921</v>
+        <v>9473</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.0608801090263884</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02696894556443919</v>
+        <v>0.02876328885315181</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1193110066692821</v>
+        <v>0.1139124132824408</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>20</v>
@@ -10016,19 +10016,19 @@
         <v>8596</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>5336</v>
+        <v>5547</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>12872</v>
+        <v>12472</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.07778563229708842</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.04829212765237826</v>
+        <v>0.05019675768658463</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1164865200276201</v>
+        <v>0.1128687580623184</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>27</v>
@@ -10037,19 +10037,19 @@
         <v>13658</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>9210</v>
+        <v>9497</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>19889</v>
+        <v>19840</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.0705265195304183</v>
+        <v>0.07052651953041832</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.04755502781354937</v>
+        <v>0.04903728313692785</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1027001139209574</v>
+        <v>0.1024469653928794</v>
       </c>
     </row>
     <row r="18">
@@ -10066,19 +10066,19 @@
         <v>77524</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>72515</v>
+        <v>72951</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>80264</v>
+        <v>80324</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9322715069253412</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8720386564688657</v>
+        <v>0.8772731299106546</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9652175140206507</v>
+        <v>0.9659448961252866</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>228</v>
@@ -10087,19 +10087,19 @@
         <v>98599</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>94196</v>
+        <v>94515</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>102345</v>
+        <v>102622</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.892266330974068</v>
+        <v>0.8922663309740682</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8524252885059668</v>
+        <v>0.8553043043700327</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9261631190975741</v>
+        <v>0.9286754720536605</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>338</v>
@@ -10108,19 +10108,19 @@
         <v>176123</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>169640</v>
+        <v>169592</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>181109</v>
+        <v>181063</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9094442721019883</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.8759674480251711</v>
+        <v>0.8757224435382744</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9351884993593015</v>
+        <v>0.9349554344222633</v>
       </c>
     </row>
     <row r="19">
@@ -10225,19 +10225,19 @@
         <v>1276</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>3487</v>
+        <v>3785</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.02085592669645656</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.00636125437847808</v>
+        <v>0.006278704619157967</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.05701610769480107</v>
+        <v>0.06189043684412342</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>3</v>
@@ -10246,19 +10246,19 @@
         <v>1276</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>0</v>
+        <v>383</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>3096</v>
+        <v>3495</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01306104510082006</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0</v>
+        <v>0.00392355153088789</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03170126975202323</v>
+        <v>0.03578266355059356</v>
       </c>
     </row>
     <row r="21">
@@ -10275,19 +10275,19 @@
         <v>2612</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>976</v>
+        <v>982</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>5706</v>
+        <v>5759</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.07156636871260234</v>
+        <v>0.07156636871260232</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.0267344241967502</v>
+        <v>0.02689786122557906</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1563194724846827</v>
+        <v>0.1577650263204095</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>15</v>
@@ -10296,19 +10296,19 @@
         <v>6134</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>3757</v>
+        <v>3686</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>10031</v>
+        <v>9987</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1002941031478073</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.06143076591266637</v>
+        <v>0.06026085729439679</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1640053578115273</v>
+        <v>0.1632885403740785</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>20</v>
@@ -10317,19 +10317,19 @@
         <v>8747</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>5394</v>
+        <v>5456</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>12980</v>
+        <v>12952</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.08955714133870399</v>
+        <v>0.08955714133870397</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.05522558489219734</v>
+        <v>0.05585848386754107</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1329027753396298</v>
+        <v>0.1326130252558421</v>
       </c>
     </row>
     <row r="22">
@@ -10346,19 +10346,19 @@
         <v>33891</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>30797</v>
+        <v>30744</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>35527</v>
+        <v>35521</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.9284336312873978</v>
+        <v>0.9284336312873973</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8436805275153174</v>
+        <v>0.8422349736795904</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9732655758032497</v>
+        <v>0.9731021387744212</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>146</v>
@@ -10367,19 +10367,19 @@
         <v>53754</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>49624</v>
+        <v>49884</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>56503</v>
+        <v>56590</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.8788499701557361</v>
+        <v>0.8788499701557362</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8113252334081313</v>
+        <v>0.8155826135275813</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9237884808808662</v>
+        <v>0.9252191937398134</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>212</v>
@@ -10388,19 +10388,19 @@
         <v>87645</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>83374</v>
+        <v>83334</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>91421</v>
+        <v>91444</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.897381813560476</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8536562901742419</v>
+        <v>0.853251175143929</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9360429799277511</v>
+        <v>0.9362881851921255</v>
       </c>
     </row>
     <row r="23">
@@ -10492,19 +10492,19 @@
         <v>1162</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3063</v>
+        <v>3269</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.01928689439933768</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.005650871684570327</v>
+        <v>0.005616304286261936</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.05085666284694599</v>
+        <v>0.05427457695759839</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>13</v>
@@ -10513,19 +10513,19 @@
         <v>4843</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>2620</v>
+        <v>2794</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>7978</v>
+        <v>8480</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.07246220721113329</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.03920409548115684</v>
+        <v>0.04179695027612128</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1193538563805424</v>
+        <v>0.1268621892622746</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>16</v>
@@ -10534,19 +10534,19 @@
         <v>6005</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>3491</v>
+        <v>3457</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>9392</v>
+        <v>9034</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.04725912045443222</v>
+        <v>0.04725912045443221</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0274782754498633</v>
+        <v>0.0272091093327972</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.07391296845330564</v>
+        <v>0.07110163993941659</v>
       </c>
     </row>
     <row r="25">
@@ -10566,16 +10566,16 @@
         <v>1684</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>6646</v>
+        <v>6565</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.05734220525494869</v>
+        <v>0.0573422052549487</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02795912311567275</v>
+        <v>0.02796701630072986</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1103607157288262</v>
+        <v>0.1090072540980011</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>16</v>
@@ -10584,19 +10584,19 @@
         <v>5147</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2982</v>
+        <v>2948</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>8312</v>
+        <v>8100</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.07699846505270859</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04461660575489076</v>
+        <v>0.04410749273605652</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1243540177430215</v>
+        <v>0.1211897141342068</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>24</v>
@@ -10605,19 +10605,19 @@
         <v>8600</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>5427</v>
+        <v>5701</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>12400</v>
+        <v>12763</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.067682141465698</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04270693227358149</v>
+        <v>0.04486961656916272</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.09758623183892864</v>
+        <v>0.1004488819063923</v>
       </c>
     </row>
     <row r="26">
@@ -10634,19 +10634,19 @@
         <v>55609</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>52342</v>
+        <v>52355</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>57672</v>
+        <v>57823</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9233709003457137</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8691272127076689</v>
+        <v>0.8693432216859128</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.957620362116013</v>
+        <v>0.9601374499850786</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>147</v>
@@ -10655,19 +10655,19 @@
         <v>56851</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>52529</v>
+        <v>52349</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>59850</v>
+        <v>59771</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8505393277361583</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7858766120040938</v>
+        <v>0.7831884833106439</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8954087703357243</v>
+        <v>0.8942207420507642</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>271</v>
@@ -10676,19 +10676,19 @@
         <v>112459</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>107612</v>
+        <v>107668</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>116665</v>
+        <v>116288</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.8850587380798697</v>
+        <v>0.8850587380798698</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8469099936946266</v>
+        <v>0.8473502563083894</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9181578914803215</v>
+        <v>0.9151933256927247</v>
       </c>
     </row>
     <row r="27">
@@ -10793,19 +10793,19 @@
         <v>5230</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1999</v>
+        <v>2568</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>10360</v>
+        <v>10622</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.0318678418056112</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01218135543821692</v>
+        <v>0.01564935191500406</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.06312387285363517</v>
+        <v>0.06472039576118829</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>7</v>
@@ -10814,19 +10814,19 @@
         <v>5230</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2015</v>
+        <v>2525</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>10297</v>
+        <v>11060</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.01657954325961969</v>
+        <v>0.0165795432596197</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.006388006492839596</v>
+        <v>0.008005640236703911</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.03263996515784083</v>
+        <v>0.03505920431392824</v>
       </c>
     </row>
     <row r="29">
@@ -10846,16 +10846,16 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>5194</v>
+        <v>5165</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.006863446928103687</v>
+        <v>0.006863446928103688</v>
       </c>
       <c r="H29" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.03432248769628796</v>
+        <v>0.03412588498944454</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>8</v>
@@ -10864,19 +10864,19 @@
         <v>5784</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2680</v>
+        <v>2595</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>11536</v>
+        <v>11095</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.03524102737184023</v>
+        <v>0.03524102737184024</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.01632622040466142</v>
+        <v>0.01580843001957759</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.07028563669749198</v>
+        <v>0.06760026318572493</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>9</v>
@@ -10885,19 +10885,19 @@
         <v>6823</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>3356</v>
+        <v>3323</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>12795</v>
+        <v>13362</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.02162714901499637</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.01063682010585173</v>
+        <v>0.01053404730516628</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.04055914098649267</v>
+        <v>0.04235627753264835</v>
       </c>
     </row>
     <row r="30">
@@ -10914,7 +10914,7 @@
         <v>150302</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>146147</v>
+        <v>146176</v>
       </c>
       <c r="F30" s="5" t="n">
         <v>151341</v>
@@ -10923,7 +10923,7 @@
         <v>0.9931365530718963</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.965677512303712</v>
+        <v>0.9658741150105558</v>
       </c>
       <c r="I30" s="6" t="n">
         <v>1</v>
@@ -10935,19 +10935,19 @@
         <v>153110</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>146872</v>
+        <v>146788</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>158083</v>
+        <v>157699</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.9328911308225486</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.8948873780971176</v>
+        <v>0.8943742382210907</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.9631900910497728</v>
+        <v>0.9608546748335614</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>393</v>
@@ -10956,19 +10956,19 @@
         <v>303412</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>296812</v>
+        <v>295295</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>308731</v>
+        <v>308168</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.9617933077253837</v>
+        <v>0.961793307725384</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.9408699787398911</v>
+        <v>0.9360622950345373</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.9786531258472538</v>
+        <v>0.9768701871144536</v>
       </c>
     </row>
     <row r="31">
@@ -11110,7 +11110,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>3147</v>
+        <v>3291</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.004044063660660495</v>
@@ -11119,7 +11119,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.01932051515229963</v>
+        <v>0.02020506099130567</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>3</v>
@@ -11128,19 +11128,19 @@
         <v>1743</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>4744</v>
+        <v>4689</v>
       </c>
       <c r="N33" s="6" t="n">
-        <v>0.008190654994841503</v>
+        <v>0.008190654994841501</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.00250870743361535</v>
+        <v>0.002481977709656334</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.02229752784933973</v>
+        <v>0.0220400074112734</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>4</v>
@@ -11149,19 +11149,19 @@
         <v>2401</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>596</v>
+        <v>613</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>6048</v>
+        <v>6154</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.006392654199175255</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.00158656006467258</v>
+        <v>0.001631856227176927</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.01609987287621463</v>
+        <v>0.01638297318205285</v>
       </c>
     </row>
     <row r="34">
@@ -11178,7 +11178,7 @@
         <v>162228</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>159740</v>
+        <v>159596</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>162887</v>
@@ -11187,7 +11187,7 @@
         <v>0.9959559363393394</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.9806794848476998</v>
+        <v>0.9797949390086944</v>
       </c>
       <c r="I34" s="6" t="n">
         <v>1</v>
@@ -11199,19 +11199,19 @@
         <v>211023</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>208022</v>
+        <v>208077</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>212232</v>
+        <v>212238</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.9918093450051588</v>
+        <v>0.9918093450051585</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.97770247215066</v>
+        <v>0.9779599925887263</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.9974912925663846</v>
+        <v>0.9975180222903437</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>573</v>
@@ -11220,19 +11220,19 @@
         <v>373252</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>369605</v>
+        <v>369499</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>375057</v>
+        <v>375040</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.9936073458008247</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.9839001271237863</v>
+        <v>0.9836170268179469</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.9984134399353275</v>
+        <v>0.9983681437728231</v>
       </c>
     </row>
     <row r="35">
@@ -11324,19 +11324,19 @@
         <v>6450</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>3218</v>
+        <v>3316</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>11608</v>
+        <v>11638</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.009012187477957361</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.004495634133476078</v>
+        <v>0.004632718713763626</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.0162184637504224</v>
+        <v>0.016260868638737</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>49</v>
@@ -11345,19 +11345,19 @@
         <v>26477</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>19349</v>
+        <v>19868</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>35203</v>
+        <v>35575</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.02935809170338933</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.02145485559425301</v>
+        <v>0.02202990503015813</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.03903406894043372</v>
+        <v>0.03944697959905563</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>60</v>
@@ -11366,19 +11366,19 @@
         <v>32927</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>25024</v>
+        <v>25014</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>42456</v>
+        <v>42168</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.02035570448122834</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.01547007343790592</v>
+        <v>0.01546418074553443</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.02624649810380608</v>
+        <v>0.02606842064230816</v>
       </c>
     </row>
     <row r="37">
@@ -11395,19 +11395,19 @@
         <v>23705</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>16364</v>
+        <v>17249</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>32954</v>
+        <v>32842</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.03312003278339845</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.02286327266785962</v>
+        <v>0.02409954844652784</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.04604251085895248</v>
+        <v>0.04588686411674744</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>109</v>
@@ -11416,19 +11416,19 @@
         <v>55406</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>45411</v>
+        <v>45943</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>66699</v>
+        <v>66065</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.06143555913192605</v>
+        <v>0.06143555913192603</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.05035293093146317</v>
+        <v>0.05094281175773169</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.07395754375961555</v>
+        <v>0.07325531334868214</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>146</v>
@@ -11437,19 +11437,19 @@
         <v>79111</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>66433</v>
+        <v>66502</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>93084</v>
+        <v>92198</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.04890687867789547</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.04106966066622149</v>
+        <v>0.04111196856660391</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.05754522946057868</v>
+        <v>0.05699786542446543</v>
       </c>
     </row>
     <row r="38">
@@ -11466,19 +11466,19 @@
         <v>685568</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>675703</v>
+        <v>675881</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>694051</v>
+        <v>693453</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.9578677797386441</v>
+        <v>0.957867779738644</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.944084455620497</v>
+        <v>0.9443337702583834</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.9697206503566596</v>
+        <v>0.9688851065615242</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>1546</v>
@@ -11487,19 +11487,19 @@
         <v>819970</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>806338</v>
+        <v>807682</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>832908</v>
+        <v>832396</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>0.9092063491646847</v>
+        <v>0.9092063491646845</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.8940911863479796</v>
+        <v>0.8955818876625008</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.9235524762499064</v>
+        <v>0.9229848070839656</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>2524</v>
@@ -11508,19 +11508,19 @@
         <v>1505538</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1489183</v>
+        <v>1489710</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1520948</v>
+        <v>1519807</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.9307374168408762</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.9206268598655238</v>
+        <v>0.9209526191323734</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.9402645463781414</v>
+        <v>0.9395589364033093</v>
       </c>
     </row>
     <row r="39">
